--- a/mac-software-a2025.xlsx
+++ b/mac-software-a2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nortonb/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5DC4ECA-3E75-DE4A-B333-37A0E2D1B991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{71D1208D-7AF1-4B41-8E51-B0832DF89E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20300" yWindow="5640" windowWidth="28040" windowHeight="17440" xr2:uid="{D30E9E8A-B41C-1147-AC7C-32FFE2D622E3}"/>
+    <workbookView xWindow="24580" yWindow="2460" windowWidth="21140" windowHeight="24620" xr2:uid="{D30E9E8A-B41C-1147-AC7C-32FFE2D622E3}"/>
   </bookViews>
   <sheets>
     <sheet name="mac-software-a2025" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="131">
   <si>
     <t>mac software December 2025</t>
   </si>
@@ -410,13 +410,16 @@
   </si>
   <si>
     <t>zoom.us.app</t>
+  </si>
+  <si>
+    <t>only on teacher's workstations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -551,8 +554,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,6 +769,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,13 +939,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1307,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E852436D-1A9C-9E40-A860-AC68C06E05CC}">
   <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" activeCellId="5" sqref="A45 A44 A32 A31 A29 A27"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1317,7 +1335,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1501,7 +1519,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
@@ -1597,7 +1615,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
@@ -1637,7 +1655,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
@@ -1645,7 +1663,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
@@ -1797,7 +1815,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
@@ -1853,7 +1871,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B68" t="s">
@@ -1949,7 +1967,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B80" t="s">
@@ -2117,7 +2135,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B101" t="s">
@@ -2157,7 +2175,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B106" t="s">
@@ -2233,7 +2251,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
